--- a/progetti-per-test/Progetto-Semplice-V1/confronto-pratiche.xlsx
+++ b/progetti-per-test/Progetto-Semplice-V1/confronto-pratiche.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN10\Desktop\Tirocinio-Aggiornato\progetti-per-test\Progetto-Semplice-V1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN10\Desktop\Tirocinio-aggiornato\progetti-per-test\Progetto-Semplice-V1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -973,7 +973,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1077,17 +1077,17 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>7.1428571428571423</v>
+        <v>2.3809523809523809</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1236,17 +1236,17 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="2"/>
-        <v>7.1428571428571423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B20" s="1">
         <f>SUM(E4:E9)</f>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1">
         <f>SUM(F4:F9)</f>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="D20" s="1">
         <f>SUM(B20,C20)</f>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="B21" s="1">
         <f>SUM(E11:E16)</f>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1">
         <f>SUM(F11:F16)</f>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="D21" s="1">
         <f>SUM(B21,C21)</f>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
